--- a/eur graph.xlsx
+++ b/eur graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdeplanck1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E25A7E-A0A7-446B-82AB-A89E4C664FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6ECD4-33F2-4187-9C3F-C81BDEF49A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{EAD11E36-F1EB-49A9-8732-01CE0408CA5B}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E528BAB-F4DC-4D96-84FE-9DE9FFAE67F3}">
   <dimension ref="A1:S1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="F374" sqref="F374:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,9 +1067,7 @@
       <c r="D20" s="8">
         <v>157727</v>
       </c>
-      <c r="E20" s="8">
-        <v>19558</v>
-      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="8">
         <v>253838</v>
       </c>
@@ -1093,9 +1091,7 @@
       <c r="D21" s="8">
         <v>156236</v>
       </c>
-      <c r="E21" s="8">
-        <v>19178</v>
-      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8">
         <v>244644</v>
       </c>
@@ -1119,9 +1115,7 @@
       <c r="D22" s="8">
         <v>153145</v>
       </c>
-      <c r="E22" s="8">
-        <v>17867</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8">
         <v>235380</v>
       </c>
@@ -1145,9 +1139,7 @@
       <c r="D23" s="8">
         <v>150063</v>
       </c>
-      <c r="E23" s="8">
-        <v>15606</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8">
         <v>217642</v>
       </c>
@@ -1171,9 +1163,7 @@
       <c r="D24" s="8">
         <v>147873</v>
       </c>
-      <c r="E24" s="8">
-        <v>15556</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8">
         <v>205087</v>
       </c>
@@ -1197,9 +1187,7 @@
       <c r="D25" s="8">
         <v>137158</v>
       </c>
-      <c r="E25" s="8">
-        <v>13525</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8">
         <v>184038</v>
       </c>
@@ -1223,9 +1211,7 @@
       <c r="D26" s="8">
         <v>137158</v>
       </c>
-      <c r="E26" s="8">
-        <v>11474</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8">
         <v>182287</v>
       </c>
@@ -1249,9 +1235,7 @@
       <c r="D27" s="8">
         <v>136598</v>
       </c>
-      <c r="E27" s="8">
-        <v>10864</v>
-      </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="8">
         <v>181987</v>
       </c>
@@ -1275,9 +1259,7 @@
       <c r="D28" s="8">
         <v>134677</v>
       </c>
-      <c r="E28" s="9">
-        <v>9988</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="8">
         <v>175004</v>
       </c>
@@ -9584,13 +9566,9 @@
       <c r="C377" s="3">
         <v>70039</v>
       </c>
-      <c r="D377" s="5">
-        <v>12165</v>
-      </c>
+      <c r="D377" s="5"/>
       <c r="E377" s="1"/>
-      <c r="F377" s="5">
-        <v>13085</v>
-      </c>
+      <c r="F377" s="5"/>
       <c r="G377" s="5">
         <v>3880257</v>
       </c>
@@ -9668,13 +9646,9 @@
       <c r="C382" s="3">
         <v>55643</v>
       </c>
-      <c r="D382" s="5">
-        <v>10174</v>
-      </c>
+      <c r="D382" s="5"/>
       <c r="E382" s="1"/>
-      <c r="F382" s="5">
-        <v>10204</v>
-      </c>
+      <c r="F382" s="5"/>
       <c r="G382" s="5">
         <v>2115133</v>
       </c>
@@ -9704,13 +9678,9 @@
       <c r="C384" s="3">
         <v>55023</v>
       </c>
-      <c r="D384" s="5">
-        <v>10094</v>
-      </c>
+      <c r="D384" s="5"/>
       <c r="E384" s="1"/>
-      <c r="F384" s="5">
-        <v>10054</v>
-      </c>
+      <c r="F384" s="5"/>
       <c r="G384" s="5">
         <v>1480412</v>
       </c>
@@ -9820,13 +9790,9 @@
       <c r="C391" s="3">
         <v>61486</v>
       </c>
-      <c r="D391" s="5">
-        <v>11204</v>
-      </c>
+      <c r="D391" s="5"/>
       <c r="E391" s="1"/>
-      <c r="F391" s="5">
-        <v>11554</v>
-      </c>
+      <c r="F391" s="5"/>
       <c r="G391" s="5">
         <v>429563</v>
       </c>
@@ -9856,13 +9822,9 @@
       <c r="C393" s="3">
         <v>56524</v>
       </c>
-      <c r="D393" s="5">
-        <v>10324</v>
-      </c>
+      <c r="D393" s="5"/>
       <c r="E393" s="1"/>
-      <c r="F393" s="5">
-        <v>10284</v>
-      </c>
+      <c r="F393" s="5"/>
       <c r="G393" s="5">
         <v>309171</v>
       </c>
@@ -9876,13 +9838,9 @@
       <c r="C394" s="3">
         <v>57194</v>
       </c>
-      <c r="D394" s="5">
-        <v>10364</v>
-      </c>
+      <c r="D394" s="5"/>
       <c r="E394" s="1"/>
-      <c r="F394" s="5">
-        <v>10314</v>
-      </c>
+      <c r="F394" s="5"/>
       <c r="G394" s="5">
         <v>270755</v>
       </c>
@@ -9896,13 +9854,9 @@
       <c r="C395" s="3">
         <v>67848</v>
       </c>
-      <c r="D395" s="5">
-        <v>11914</v>
-      </c>
+      <c r="D395" s="5"/>
       <c r="E395" s="1"/>
-      <c r="F395" s="5">
-        <v>12695</v>
-      </c>
+      <c r="F395" s="5"/>
       <c r="G395" s="5">
         <v>218843</v>
       </c>
@@ -9966,9 +9920,7 @@
       </c>
       <c r="D399" s="8"/>
       <c r="E399" s="9"/>
-      <c r="F399" s="8">
-        <v>20018</v>
-      </c>
+      <c r="F399" s="8"/>
       <c r="G399" s="8">
         <v>180657</v>
       </c>
@@ -10062,13 +10014,9 @@
       <c r="C405" s="1">
         <v>67513</v>
       </c>
-      <c r="D405" s="5">
-        <v>11875</v>
-      </c>
+      <c r="D405" s="5"/>
       <c r="E405" s="1"/>
-      <c r="F405" s="5">
-        <v>12685</v>
-      </c>
+      <c r="F405" s="5"/>
       <c r="G405" s="5">
         <v>103794</v>
       </c>
@@ -10116,9 +10064,7 @@
       </c>
       <c r="D408" s="8"/>
       <c r="E408" s="9"/>
-      <c r="F408" s="8">
-        <v>20528</v>
-      </c>
+      <c r="F408" s="8"/>
       <c r="G408" s="8">
         <v>95530</v>
       </c>
@@ -10134,9 +10080,7 @@
       </c>
       <c r="D409" s="8"/>
       <c r="E409" s="9"/>
-      <c r="F409" s="8">
-        <v>20518</v>
-      </c>
+      <c r="F409" s="8"/>
       <c r="G409" s="8">
         <v>95320</v>
       </c>
@@ -10152,9 +10096,7 @@
       </c>
       <c r="D410" s="8"/>
       <c r="E410" s="9"/>
-      <c r="F410" s="8">
-        <v>20438</v>
-      </c>
+      <c r="F410" s="8"/>
       <c r="G410" s="8">
         <v>94870</v>
       </c>
@@ -10170,9 +10112,7 @@
       </c>
       <c r="D411" s="8"/>
       <c r="E411" s="9"/>
-      <c r="F411" s="8">
-        <v>20418</v>
-      </c>
+      <c r="F411" s="8"/>
       <c r="G411" s="8">
         <v>93389</v>
       </c>
@@ -10188,9 +10128,7 @@
       </c>
       <c r="D412" s="8"/>
       <c r="E412" s="9"/>
-      <c r="F412" s="8">
-        <v>20418</v>
-      </c>
+      <c r="F412" s="8"/>
       <c r="G412" s="8">
         <v>93119</v>
       </c>
@@ -10206,9 +10144,7 @@
       </c>
       <c r="D413" s="8"/>
       <c r="E413" s="9"/>
-      <c r="F413" s="8">
-        <v>20348</v>
-      </c>
+      <c r="F413" s="8"/>
       <c r="G413" s="8">
         <v>92299</v>
       </c>
@@ -10224,9 +10160,7 @@
       </c>
       <c r="D414" s="8"/>
       <c r="E414" s="9"/>
-      <c r="F414" s="8">
-        <v>20318</v>
-      </c>
+      <c r="F414" s="8"/>
       <c r="G414" s="9">
         <v>92098</v>
       </c>
@@ -10242,9 +10176,7 @@
       </c>
       <c r="D415" s="8"/>
       <c r="E415" s="9"/>
-      <c r="F415" s="8">
-        <v>20318</v>
-      </c>
+      <c r="F415" s="8"/>
       <c r="G415" s="8">
         <v>91679</v>
       </c>
@@ -10260,9 +10192,7 @@
       </c>
       <c r="D416" s="8"/>
       <c r="E416" s="9"/>
-      <c r="F416" s="8">
-        <v>20308</v>
-      </c>
+      <c r="F416" s="8"/>
       <c r="G416" s="8">
         <v>91338</v>
       </c>
@@ -10278,9 +10208,7 @@
       </c>
       <c r="D417" s="8"/>
       <c r="E417" s="9"/>
-      <c r="F417" s="8">
-        <v>20238</v>
-      </c>
+      <c r="F417" s="8"/>
       <c r="G417" s="8">
         <v>90668</v>
       </c>
@@ -10296,9 +10224,7 @@
       </c>
       <c r="D418" s="8"/>
       <c r="E418" s="9"/>
-      <c r="F418" s="8">
-        <v>20168</v>
-      </c>
+      <c r="F418" s="8"/>
       <c r="G418" s="8">
         <v>90598</v>
       </c>
@@ -10314,9 +10240,7 @@
       </c>
       <c r="D419" s="8"/>
       <c r="E419" s="9"/>
-      <c r="F419" s="8">
-        <v>20128</v>
-      </c>
+      <c r="F419" s="8"/>
       <c r="G419" s="8">
         <v>90498</v>
       </c>
@@ -10332,9 +10256,7 @@
       </c>
       <c r="D420" s="8"/>
       <c r="E420" s="9"/>
-      <c r="F420" s="8">
-        <v>20108</v>
-      </c>
+      <c r="F420" s="8"/>
       <c r="G420" s="8">
         <v>90408</v>
       </c>
@@ -10748,13 +10670,9 @@
       <c r="C446" s="3">
         <v>70609</v>
       </c>
-      <c r="D446" s="5">
-        <v>12355</v>
-      </c>
+      <c r="D446" s="5"/>
       <c r="E446" s="1"/>
-      <c r="F446" s="5">
-        <v>13145</v>
-      </c>
+      <c r="F446" s="5"/>
       <c r="G446" s="5">
         <v>81244</v>
       </c>
@@ -11120,13 +11038,9 @@
       <c r="C469" s="3">
         <v>55953</v>
       </c>
-      <c r="D469" s="5">
-        <v>10234</v>
-      </c>
+      <c r="D469" s="5"/>
       <c r="E469" s="1"/>
-      <c r="F469" s="5">
-        <v>10244</v>
-      </c>
+      <c r="F469" s="5"/>
       <c r="G469" s="5">
         <v>76372</v>
       </c>
@@ -11156,13 +11070,9 @@
       <c r="C471" s="3">
         <v>62286</v>
       </c>
-      <c r="D471" s="5">
-        <v>11324</v>
-      </c>
+      <c r="D471" s="5"/>
       <c r="E471" s="1"/>
-      <c r="F471" s="5">
-        <v>11664</v>
-      </c>
+      <c r="F471" s="5"/>
       <c r="G471" s="5">
         <v>75562</v>
       </c>
@@ -11560,13 +11470,9 @@
       <c r="C496" s="3">
         <v>62056</v>
       </c>
-      <c r="D496" s="5">
-        <v>11284</v>
-      </c>
+      <c r="D496" s="5"/>
       <c r="E496" s="1"/>
-      <c r="F496" s="5">
-        <v>11594</v>
-      </c>
+      <c r="F496" s="5"/>
       <c r="G496" s="5">
         <v>69859</v>
       </c>
@@ -12524,13 +12430,9 @@
       <c r="C556" s="3">
         <v>76862</v>
       </c>
-      <c r="D556" s="5">
-        <v>13595</v>
-      </c>
+      <c r="D556" s="5"/>
       <c r="E556" s="1"/>
-      <c r="F556" s="5">
-        <v>14615</v>
-      </c>
+      <c r="F556" s="5"/>
       <c r="G556" s="5">
         <v>58514</v>
       </c>
@@ -12544,13 +12446,9 @@
       <c r="C557" s="3">
         <v>76772</v>
       </c>
-      <c r="D557" s="5">
-        <v>13585</v>
-      </c>
+      <c r="D557" s="5"/>
       <c r="E557" s="1"/>
-      <c r="F557" s="5">
-        <v>14526</v>
-      </c>
+      <c r="F557" s="5"/>
       <c r="G557" s="5">
         <v>58514</v>
       </c>
@@ -12564,13 +12462,9 @@
       <c r="C558" s="3">
         <v>76332</v>
       </c>
-      <c r="D558" s="5">
-        <v>13535</v>
-      </c>
+      <c r="D558" s="5"/>
       <c r="E558" s="1"/>
-      <c r="F558" s="5">
-        <v>14495</v>
-      </c>
+      <c r="F558" s="5"/>
       <c r="G558" s="5">
         <v>58444</v>
       </c>
@@ -12584,13 +12478,9 @@
       <c r="C559" s="3">
         <v>76252</v>
       </c>
-      <c r="D559" s="5">
-        <v>13485</v>
-      </c>
+      <c r="D559" s="5"/>
       <c r="E559" s="1"/>
-      <c r="F559" s="5">
-        <v>14485</v>
-      </c>
+      <c r="F559" s="5"/>
       <c r="G559" s="5">
         <v>58434</v>
       </c>
@@ -12604,13 +12494,9 @@
       <c r="C560" s="3">
         <v>76222</v>
       </c>
-      <c r="D560" s="5">
-        <v>13485</v>
-      </c>
+      <c r="D560" s="5"/>
       <c r="E560" s="1"/>
-      <c r="F560" s="5">
-        <v>14466</v>
-      </c>
+      <c r="F560" s="5"/>
       <c r="G560" s="5">
         <v>58304</v>
       </c>
@@ -12624,13 +12510,9 @@
       <c r="C561" s="3">
         <v>55983</v>
       </c>
-      <c r="D561" s="5">
-        <v>10264</v>
-      </c>
+      <c r="D561" s="5"/>
       <c r="E561" s="1"/>
-      <c r="F561" s="5">
-        <v>10274</v>
-      </c>
+      <c r="F561" s="5"/>
       <c r="G561" s="5">
         <v>58204</v>
       </c>
@@ -12644,13 +12526,9 @@
       <c r="C562" s="3">
         <v>75852</v>
       </c>
-      <c r="D562" s="5">
-        <v>13395</v>
-      </c>
+      <c r="D562" s="5"/>
       <c r="E562" s="1"/>
-      <c r="F562" s="5">
-        <v>14435</v>
-      </c>
+      <c r="F562" s="5"/>
       <c r="G562" s="5">
         <v>58174</v>
       </c>
@@ -12664,13 +12542,9 @@
       <c r="C563" s="3">
         <v>75562</v>
       </c>
-      <c r="D563" s="5">
-        <v>13385</v>
-      </c>
+      <c r="D563" s="5"/>
       <c r="E563" s="1"/>
-      <c r="F563" s="5">
-        <v>14296</v>
-      </c>
+      <c r="F563" s="5"/>
       <c r="G563" s="5">
         <v>58004</v>
       </c>
@@ -12684,13 +12558,9 @@
       <c r="C564" s="3">
         <v>75552</v>
       </c>
-      <c r="D564" s="5">
-        <v>13375</v>
-      </c>
+      <c r="D564" s="5"/>
       <c r="E564" s="1"/>
-      <c r="F564" s="5">
-        <v>14215</v>
-      </c>
+      <c r="F564" s="5"/>
       <c r="G564" s="5">
         <v>57974</v>
       </c>
@@ -12704,13 +12574,9 @@
       <c r="C565" s="3">
         <v>75542</v>
       </c>
-      <c r="D565" s="5">
-        <v>13365</v>
-      </c>
+      <c r="D565" s="5"/>
       <c r="E565" s="1"/>
-      <c r="F565" s="5">
-        <v>14185</v>
-      </c>
+      <c r="F565" s="5"/>
       <c r="G565" s="5">
         <v>57944</v>
       </c>
@@ -12724,13 +12590,9 @@
       <c r="C566" s="3">
         <v>75412</v>
       </c>
-      <c r="D566" s="5">
-        <v>13305</v>
-      </c>
+      <c r="D566" s="5"/>
       <c r="E566" s="1"/>
-      <c r="F566" s="5">
-        <v>14065</v>
-      </c>
+      <c r="F566" s="5"/>
       <c r="G566" s="5">
         <v>57924</v>
       </c>
@@ -12744,13 +12606,9 @@
       <c r="C567" s="3">
         <v>75121</v>
       </c>
-      <c r="D567" s="5">
-        <v>13265</v>
-      </c>
+      <c r="D567" s="5"/>
       <c r="E567" s="1"/>
-      <c r="F567" s="5">
-        <v>14055</v>
-      </c>
+      <c r="F567" s="5"/>
       <c r="G567" s="5">
         <v>57904</v>
       </c>
@@ -12764,13 +12622,9 @@
       <c r="C568" s="3">
         <v>74801</v>
       </c>
-      <c r="D568" s="5">
-        <v>13235</v>
-      </c>
+      <c r="D568" s="5"/>
       <c r="E568" s="1"/>
-      <c r="F568" s="5">
-        <v>14045</v>
-      </c>
+      <c r="F568" s="5"/>
       <c r="G568" s="5">
         <v>57794</v>
       </c>
@@ -12784,13 +12638,9 @@
       <c r="C569" s="3">
         <v>74671</v>
       </c>
-      <c r="D569" s="5">
-        <v>13215</v>
-      </c>
+      <c r="D569" s="5"/>
       <c r="E569" s="1"/>
-      <c r="F569" s="5">
-        <v>13975</v>
-      </c>
+      <c r="F569" s="5"/>
       <c r="G569" s="1">
         <v>57792</v>
       </c>
@@ -12804,13 +12654,9 @@
       <c r="C570" s="3">
         <v>74611</v>
       </c>
-      <c r="D570" s="5">
-        <v>13185</v>
-      </c>
+      <c r="D570" s="5"/>
       <c r="E570" s="1"/>
-      <c r="F570" s="5">
-        <v>13955</v>
-      </c>
+      <c r="F570" s="5"/>
       <c r="G570" s="5">
         <v>57744</v>
       </c>
@@ -12824,13 +12670,9 @@
       <c r="C571" s="3">
         <v>74541</v>
       </c>
-      <c r="D571" s="5">
-        <v>13105</v>
-      </c>
+      <c r="D571" s="5"/>
       <c r="E571" s="1"/>
-      <c r="F571" s="5">
-        <v>13905</v>
-      </c>
+      <c r="F571" s="5"/>
       <c r="G571" s="5">
         <v>57724</v>
       </c>
@@ -12844,13 +12686,9 @@
       <c r="C572" s="3">
         <v>74401</v>
       </c>
-      <c r="D572" s="5">
-        <v>13085</v>
-      </c>
+      <c r="D572" s="5"/>
       <c r="E572" s="1"/>
-      <c r="F572" s="5">
-        <v>13795</v>
-      </c>
+      <c r="F572" s="5"/>
       <c r="G572" s="5">
         <v>57634</v>
       </c>
@@ -12864,13 +12702,9 @@
       <c r="C573" s="3">
         <v>74111</v>
       </c>
-      <c r="D573" s="5">
-        <v>13025</v>
-      </c>
+      <c r="D573" s="5"/>
       <c r="E573" s="1"/>
-      <c r="F573" s="5">
-        <v>13785</v>
-      </c>
+      <c r="F573" s="5"/>
       <c r="G573" s="1">
         <v>57494</v>
       </c>
@@ -12900,13 +12734,9 @@
       <c r="C575" s="3">
         <v>74001</v>
       </c>
-      <c r="D575" s="5">
-        <v>13015</v>
-      </c>
+      <c r="D575" s="5"/>
       <c r="E575" s="1"/>
-      <c r="F575" s="5">
-        <v>13755</v>
-      </c>
+      <c r="F575" s="5"/>
       <c r="G575" s="5">
         <v>57454</v>
       </c>
@@ -12920,13 +12750,9 @@
       <c r="C576" s="3">
         <v>73831</v>
       </c>
-      <c r="D576" s="5">
-        <v>12985</v>
-      </c>
+      <c r="D576" s="5"/>
       <c r="E576" s="1"/>
-      <c r="F576" s="5">
-        <v>13755</v>
-      </c>
+      <c r="F576" s="5"/>
       <c r="G576" s="5">
         <v>57334</v>
       </c>
@@ -12940,13 +12766,9 @@
       <c r="C577" s="3">
         <v>73821</v>
       </c>
-      <c r="D577" s="5">
-        <v>12985</v>
-      </c>
+      <c r="D577" s="5"/>
       <c r="E577" s="1"/>
-      <c r="F577" s="5">
-        <v>13715</v>
-      </c>
+      <c r="F577" s="5"/>
       <c r="G577" s="5">
         <v>56774</v>
       </c>
@@ -12960,13 +12782,9 @@
       <c r="C578" s="3">
         <v>73511</v>
       </c>
-      <c r="D578" s="5">
-        <v>12825</v>
-      </c>
+      <c r="D578" s="5"/>
       <c r="E578" s="1"/>
-      <c r="F578" s="5">
-        <v>13625</v>
-      </c>
+      <c r="F578" s="5"/>
       <c r="G578" s="5">
         <v>56574</v>
       </c>
@@ -12980,13 +12798,9 @@
       <c r="C579" s="3">
         <v>73511</v>
       </c>
-      <c r="D579" s="5">
-        <v>12815</v>
-      </c>
+      <c r="D579" s="5"/>
       <c r="E579" s="1"/>
-      <c r="F579" s="5">
-        <v>13525</v>
-      </c>
+      <c r="F579" s="5"/>
       <c r="G579" s="5">
         <v>56553</v>
       </c>
@@ -13000,13 +12814,9 @@
       <c r="C580" s="3">
         <v>73291</v>
       </c>
-      <c r="D580" s="5">
-        <v>12815</v>
-      </c>
+      <c r="D580" s="5"/>
       <c r="E580" s="1"/>
-      <c r="F580" s="5">
-        <v>13495</v>
-      </c>
+      <c r="F580" s="5"/>
       <c r="G580" s="5">
         <v>56223</v>
       </c>
@@ -13020,13 +12830,9 @@
       <c r="C581" s="3">
         <v>72841</v>
       </c>
-      <c r="D581" s="5">
-        <v>12815</v>
-      </c>
+      <c r="D581" s="5"/>
       <c r="E581" s="1"/>
-      <c r="F581" s="5">
-        <v>13475</v>
-      </c>
+      <c r="F581" s="5"/>
       <c r="G581" s="5">
         <v>56173</v>
       </c>
@@ -13040,13 +12846,9 @@
       <c r="C582" s="3">
         <v>72601</v>
       </c>
-      <c r="D582" s="5">
-        <v>12805</v>
-      </c>
+      <c r="D582" s="5"/>
       <c r="E582" s="1"/>
-      <c r="F582" s="5">
-        <v>13475</v>
-      </c>
+      <c r="F582" s="5"/>
       <c r="G582" s="5">
         <v>56003</v>
       </c>
@@ -13060,13 +12862,9 @@
       <c r="C583" s="3">
         <v>72580</v>
       </c>
-      <c r="D583" s="5">
-        <v>12715</v>
-      </c>
+      <c r="D583" s="5"/>
       <c r="E583" s="1"/>
-      <c r="F583" s="5">
-        <v>13465</v>
-      </c>
+      <c r="F583" s="5"/>
       <c r="G583" s="5">
         <v>55953</v>
       </c>
@@ -13080,13 +12878,9 @@
       <c r="C584" s="3">
         <v>72560</v>
       </c>
-      <c r="D584" s="5">
-        <v>12705</v>
-      </c>
+      <c r="D584" s="5"/>
       <c r="E584" s="1"/>
-      <c r="F584" s="5">
-        <v>13455</v>
-      </c>
+      <c r="F584" s="5"/>
       <c r="G584" s="5">
         <v>55883</v>
       </c>
@@ -13100,13 +12894,9 @@
       <c r="C585" s="3">
         <v>72530</v>
       </c>
-      <c r="D585" s="5">
-        <v>12695</v>
-      </c>
+      <c r="D585" s="5"/>
       <c r="E585" s="1"/>
-      <c r="F585" s="5">
-        <v>13445</v>
-      </c>
+      <c r="F585" s="5"/>
       <c r="G585" s="5">
         <v>55813</v>
       </c>
@@ -13120,13 +12910,9 @@
       <c r="C586" s="3">
         <v>72240</v>
       </c>
-      <c r="D586" s="5">
-        <v>12675</v>
-      </c>
+      <c r="D586" s="5"/>
       <c r="E586" s="1"/>
-      <c r="F586" s="5">
-        <v>13445</v>
-      </c>
+      <c r="F586" s="5"/>
       <c r="G586" s="5">
         <v>55713</v>
       </c>
@@ -13140,13 +12926,9 @@
       <c r="C587" s="1">
         <v>71556</v>
       </c>
-      <c r="D587" s="5">
-        <v>12585</v>
-      </c>
+      <c r="D587" s="5"/>
       <c r="E587" s="1"/>
-      <c r="F587" s="5">
-        <v>13385</v>
-      </c>
+      <c r="F587" s="5"/>
       <c r="G587" s="5">
         <v>55483</v>
       </c>
@@ -13160,13 +12942,9 @@
       <c r="C588" s="3">
         <v>71510</v>
       </c>
-      <c r="D588" s="5">
-        <v>12575</v>
-      </c>
+      <c r="D588" s="5"/>
       <c r="E588" s="1"/>
-      <c r="F588" s="5">
-        <v>13345</v>
-      </c>
+      <c r="F588" s="5"/>
       <c r="G588" s="5">
         <v>55413</v>
       </c>
@@ -13180,13 +12958,9 @@
       <c r="C589" s="3">
         <v>71470</v>
       </c>
-      <c r="D589" s="5">
-        <v>12565</v>
-      </c>
+      <c r="D589" s="5"/>
       <c r="E589" s="1"/>
-      <c r="F589" s="5">
-        <v>13325</v>
-      </c>
+      <c r="F589" s="5"/>
       <c r="G589" s="1">
         <v>55136</v>
       </c>
@@ -13200,13 +12974,9 @@
       <c r="C590" s="3">
         <v>71370</v>
       </c>
-      <c r="D590" s="5">
-        <v>12545</v>
-      </c>
+      <c r="D590" s="5"/>
       <c r="E590" s="1"/>
-      <c r="F590" s="5">
-        <v>13305</v>
-      </c>
+      <c r="F590" s="5"/>
       <c r="G590" s="5">
         <v>55123</v>
       </c>
@@ -13220,13 +12990,9 @@
       <c r="C591" s="3">
         <v>71300</v>
       </c>
-      <c r="D591" s="5">
-        <v>12535</v>
-      </c>
+      <c r="D591" s="5"/>
       <c r="E591" s="1"/>
-      <c r="F591" s="5">
-        <v>13295</v>
-      </c>
+      <c r="F591" s="5"/>
       <c r="G591" s="5">
         <v>54713</v>
       </c>
@@ -13240,13 +13006,9 @@
       <c r="C592" s="3">
         <v>71190</v>
       </c>
-      <c r="D592" s="5">
-        <v>12355</v>
-      </c>
+      <c r="D592" s="5"/>
       <c r="E592" s="1"/>
-      <c r="F592" s="5">
-        <v>13225</v>
-      </c>
+      <c r="F592" s="5"/>
       <c r="G592" s="5">
         <v>54403</v>
       </c>
@@ -13260,13 +13022,9 @@
       <c r="C593" s="3">
         <v>71080</v>
       </c>
-      <c r="D593" s="5">
-        <v>12355</v>
-      </c>
+      <c r="D593" s="5"/>
       <c r="E593" s="1"/>
-      <c r="F593" s="5">
-        <v>13175</v>
-      </c>
+      <c r="F593" s="5"/>
       <c r="G593" s="5">
         <v>54173</v>
       </c>
@@ -13280,13 +13038,9 @@
       <c r="C594" s="3">
         <v>70580</v>
       </c>
-      <c r="D594" s="5">
-        <v>12335</v>
-      </c>
+      <c r="D594" s="5"/>
       <c r="E594" s="1"/>
-      <c r="F594" s="5">
-        <v>13145</v>
-      </c>
+      <c r="F594" s="5"/>
       <c r="G594" s="5">
         <v>53902</v>
       </c>
@@ -13300,13 +13054,9 @@
       <c r="C595" s="3">
         <v>70559</v>
       </c>
-      <c r="D595" s="5">
-        <v>12335</v>
-      </c>
+      <c r="D595" s="5"/>
       <c r="E595" s="1"/>
-      <c r="F595" s="5">
-        <v>13125</v>
-      </c>
+      <c r="F595" s="5"/>
       <c r="G595" s="5">
         <v>53882</v>
       </c>
@@ -13320,13 +13070,9 @@
       <c r="C596" s="3">
         <v>70239</v>
       </c>
-      <c r="D596" s="5">
-        <v>12335</v>
-      </c>
+      <c r="D596" s="5"/>
       <c r="E596" s="1"/>
-      <c r="F596" s="5">
-        <v>13115</v>
-      </c>
+      <c r="F596" s="5"/>
       <c r="G596" s="1">
         <v>53818</v>
       </c>
@@ -13340,13 +13086,9 @@
       <c r="C597" s="3">
         <v>70159</v>
       </c>
-      <c r="D597" s="5">
-        <v>12275</v>
-      </c>
+      <c r="D597" s="5"/>
       <c r="E597" s="1"/>
-      <c r="F597" s="5">
-        <v>13095</v>
-      </c>
+      <c r="F597" s="5"/>
       <c r="G597" s="5">
         <v>53712</v>
       </c>
@@ -13360,13 +13102,9 @@
       <c r="C598" s="3">
         <v>70029</v>
       </c>
-      <c r="D598" s="5">
-        <v>12165</v>
-      </c>
+      <c r="D598" s="5"/>
       <c r="E598" s="1"/>
-      <c r="F598" s="5">
-        <v>13005</v>
-      </c>
+      <c r="F598" s="5"/>
       <c r="G598" s="5">
         <v>53652</v>
       </c>
@@ -13380,13 +13118,9 @@
       <c r="C599" s="3">
         <v>69919</v>
       </c>
-      <c r="D599" s="5">
-        <v>12165</v>
-      </c>
+      <c r="D599" s="5"/>
       <c r="E599" s="1"/>
-      <c r="F599" s="5">
-        <v>12975</v>
-      </c>
+      <c r="F599" s="5"/>
       <c r="G599" s="5">
         <v>53582</v>
       </c>
@@ -13400,13 +13134,9 @@
       <c r="C600" s="3">
         <v>69789</v>
       </c>
-      <c r="D600" s="5">
-        <v>12155</v>
-      </c>
+      <c r="D600" s="5"/>
       <c r="E600" s="1"/>
-      <c r="F600" s="5">
-        <v>12965</v>
-      </c>
+      <c r="F600" s="5"/>
       <c r="G600" s="5">
         <v>53542</v>
       </c>
@@ -13420,13 +13150,9 @@
       <c r="C601" s="3">
         <v>69619</v>
       </c>
-      <c r="D601" s="5">
-        <v>12105</v>
-      </c>
+      <c r="D601" s="5"/>
       <c r="E601" s="1"/>
-      <c r="F601" s="5">
-        <v>12955</v>
-      </c>
+      <c r="F601" s="5"/>
       <c r="G601" s="5">
         <v>53502</v>
       </c>
@@ -13440,13 +13166,9 @@
       <c r="C602" s="3">
         <v>69609</v>
       </c>
-      <c r="D602" s="5">
-        <v>12095</v>
-      </c>
+      <c r="D602" s="5"/>
       <c r="E602" s="1"/>
-      <c r="F602" s="5">
-        <v>12935</v>
-      </c>
+      <c r="F602" s="5"/>
       <c r="G602" s="1">
         <v>53292</v>
       </c>
@@ -13460,13 +13182,9 @@
       <c r="C603" s="3">
         <v>69359</v>
       </c>
-      <c r="D603" s="5">
-        <v>12084</v>
-      </c>
+      <c r="D603" s="5"/>
       <c r="E603" s="1"/>
-      <c r="F603" s="5">
-        <v>12915</v>
-      </c>
+      <c r="F603" s="5"/>
       <c r="G603" s="5">
         <v>53122</v>
       </c>
@@ -13480,13 +13198,9 @@
       <c r="C604" s="3">
         <v>69269</v>
       </c>
-      <c r="D604" s="5">
-        <v>12064</v>
-      </c>
+      <c r="D604" s="5"/>
       <c r="E604" s="1"/>
-      <c r="F604" s="5">
-        <v>12855</v>
-      </c>
+      <c r="F604" s="5"/>
       <c r="G604" s="1">
         <v>53094</v>
       </c>
@@ -13500,13 +13214,9 @@
       <c r="C605" s="3">
         <v>69119</v>
       </c>
-      <c r="D605" s="5">
-        <v>12024</v>
-      </c>
+      <c r="D605" s="5"/>
       <c r="E605" s="1"/>
-      <c r="F605" s="5">
-        <v>12815</v>
-      </c>
+      <c r="F605" s="5"/>
       <c r="G605" s="5">
         <v>53062</v>
       </c>
@@ -13520,13 +13230,9 @@
       <c r="C606" s="3">
         <v>68599</v>
       </c>
-      <c r="D606" s="5">
-        <v>11995</v>
-      </c>
+      <c r="D606" s="5"/>
       <c r="E606" s="1"/>
-      <c r="F606" s="5">
-        <v>12805</v>
-      </c>
+      <c r="F606" s="5"/>
       <c r="G606" s="5">
         <v>53032</v>
       </c>
@@ -13540,13 +13246,9 @@
       <c r="C607" s="3">
         <v>68229</v>
       </c>
-      <c r="D607" s="5">
-        <v>11974</v>
-      </c>
+      <c r="D607" s="5"/>
       <c r="E607" s="1"/>
-      <c r="F607" s="5">
-        <v>12725</v>
-      </c>
+      <c r="F607" s="5"/>
       <c r="G607" s="5">
         <v>53012</v>
       </c>
@@ -13560,13 +13262,9 @@
       <c r="C608" s="3">
         <v>68159</v>
       </c>
-      <c r="D608" s="5">
-        <v>11974</v>
-      </c>
+      <c r="D608" s="5"/>
       <c r="E608" s="1"/>
-      <c r="F608" s="5">
-        <v>12715</v>
-      </c>
+      <c r="F608" s="5"/>
       <c r="G608" s="5">
         <v>52932</v>
       </c>
@@ -13580,13 +13278,9 @@
       <c r="C609" s="3">
         <v>68049</v>
       </c>
-      <c r="D609" s="5">
-        <v>11974</v>
-      </c>
+      <c r="D609" s="5"/>
       <c r="E609" s="1"/>
-      <c r="F609" s="5">
-        <v>12695</v>
-      </c>
+      <c r="F609" s="5"/>
       <c r="G609" s="5">
         <v>52582</v>
       </c>
@@ -13600,13 +13294,9 @@
       <c r="C610" s="3">
         <v>67968</v>
       </c>
-      <c r="D610" s="5">
-        <v>11954</v>
-      </c>
+      <c r="D610" s="5"/>
       <c r="E610" s="1"/>
-      <c r="F610" s="5">
-        <v>12695</v>
-      </c>
+      <c r="F610" s="5"/>
       <c r="G610" s="5">
         <v>52472</v>
       </c>
@@ -13620,13 +13310,9 @@
       <c r="C611" s="3">
         <v>60955</v>
       </c>
-      <c r="D611" s="5">
-        <v>11074</v>
-      </c>
+      <c r="D611" s="5"/>
       <c r="E611" s="1"/>
-      <c r="F611" s="5">
-        <v>11294</v>
-      </c>
+      <c r="F611" s="5"/>
       <c r="G611" s="5">
         <v>52202</v>
       </c>
@@ -13640,13 +13326,9 @@
       <c r="C612" s="3">
         <v>66908</v>
       </c>
-      <c r="D612" s="5">
-        <v>11875</v>
-      </c>
+      <c r="D612" s="5"/>
       <c r="E612" s="1"/>
-      <c r="F612" s="5">
-        <v>12595</v>
-      </c>
+      <c r="F612" s="5"/>
       <c r="G612" s="5">
         <v>52082</v>
       </c>
@@ -13660,13 +13342,9 @@
       <c r="C613" s="3">
         <v>66698</v>
       </c>
-      <c r="D613" s="5">
-        <v>11875</v>
-      </c>
+      <c r="D613" s="5"/>
       <c r="E613" s="1"/>
-      <c r="F613" s="5">
-        <v>12535</v>
-      </c>
+      <c r="F613" s="5"/>
       <c r="G613" s="5">
         <v>52001</v>
       </c>
@@ -13680,13 +13358,9 @@
       <c r="C614" s="3">
         <v>66498</v>
       </c>
-      <c r="D614" s="5">
-        <v>11854</v>
-      </c>
+      <c r="D614" s="5"/>
       <c r="E614" s="1"/>
-      <c r="F614" s="5">
-        <v>12455</v>
-      </c>
+      <c r="F614" s="5"/>
       <c r="G614" s="5">
         <v>52001</v>
       </c>
@@ -13700,13 +13374,9 @@
       <c r="C615" s="3">
         <v>66258</v>
       </c>
-      <c r="D615" s="5">
-        <v>11834</v>
-      </c>
+      <c r="D615" s="5"/>
       <c r="E615" s="1"/>
-      <c r="F615" s="5">
-        <v>12445</v>
-      </c>
+      <c r="F615" s="5"/>
       <c r="G615" s="5">
         <v>51721</v>
       </c>
@@ -13720,13 +13390,9 @@
       <c r="C616" s="3">
         <v>65928</v>
       </c>
-      <c r="D616" s="5">
-        <v>11815</v>
-      </c>
+      <c r="D616" s="5"/>
       <c r="E616" s="1"/>
-      <c r="F616" s="5">
-        <v>12395</v>
-      </c>
+      <c r="F616" s="5"/>
       <c r="G616" s="5">
         <v>51591</v>
       </c>
@@ -13740,13 +13406,9 @@
       <c r="C617" s="3">
         <v>65748</v>
       </c>
-      <c r="D617" s="5">
-        <v>11804</v>
-      </c>
+      <c r="D617" s="5"/>
       <c r="E617" s="1"/>
-      <c r="F617" s="5">
-        <v>12385</v>
-      </c>
+      <c r="F617" s="5"/>
       <c r="G617" s="5">
         <v>51572</v>
       </c>
@@ -13760,13 +13422,9 @@
       <c r="C618" s="3">
         <v>65607</v>
       </c>
-      <c r="D618" s="5">
-        <v>11794</v>
-      </c>
+      <c r="D618" s="5"/>
       <c r="E618" s="1"/>
-      <c r="F618" s="5">
-        <v>12314</v>
-      </c>
+      <c r="F618" s="5"/>
       <c r="G618" s="5">
         <v>51271</v>
       </c>
@@ -13780,13 +13438,9 @@
       <c r="C619" s="3">
         <v>65527</v>
       </c>
-      <c r="D619" s="5">
-        <v>11784</v>
-      </c>
+      <c r="D619" s="5"/>
       <c r="E619" s="1"/>
-      <c r="F619" s="5">
-        <v>12295</v>
-      </c>
+      <c r="F619" s="5"/>
       <c r="G619" s="5">
         <v>50861</v>
       </c>
@@ -13800,13 +13454,9 @@
       <c r="C620" s="3">
         <v>65207</v>
       </c>
-      <c r="D620" s="5">
-        <v>11784</v>
-      </c>
+      <c r="D620" s="5"/>
       <c r="E620" s="1"/>
-      <c r="F620" s="5">
-        <v>12275</v>
-      </c>
+      <c r="F620" s="5"/>
       <c r="G620" s="5">
         <v>50751</v>
       </c>
@@ -13820,13 +13470,9 @@
       <c r="C621" s="3">
         <v>65137</v>
       </c>
-      <c r="D621" s="5">
-        <v>11784</v>
-      </c>
+      <c r="D621" s="5"/>
       <c r="E621" s="1"/>
-      <c r="F621" s="5">
-        <v>12275</v>
-      </c>
+      <c r="F621" s="5"/>
       <c r="G621" s="5">
         <v>50731</v>
       </c>
@@ -13840,13 +13486,9 @@
       <c r="C622" s="3">
         <v>65127</v>
       </c>
-      <c r="D622" s="5">
-        <v>11764</v>
-      </c>
+      <c r="D622" s="5"/>
       <c r="E622" s="1"/>
-      <c r="F622" s="5">
-        <v>12265</v>
-      </c>
+      <c r="F622" s="5"/>
       <c r="G622" s="5">
         <v>50411</v>
       </c>
@@ -13860,13 +13502,9 @@
       <c r="C623" s="3">
         <v>65037</v>
       </c>
-      <c r="D623" s="5">
-        <v>11704</v>
-      </c>
+      <c r="D623" s="5"/>
       <c r="E623" s="1"/>
-      <c r="F623" s="5">
-        <v>12205</v>
-      </c>
+      <c r="F623" s="5"/>
       <c r="G623" s="5">
         <v>50341</v>
       </c>
@@ -13880,13 +13518,9 @@
       <c r="C624" s="3">
         <v>64897</v>
       </c>
-      <c r="D624" s="5">
-        <v>11694</v>
-      </c>
+      <c r="D624" s="5"/>
       <c r="E624" s="1"/>
-      <c r="F624" s="5">
-        <v>12205</v>
-      </c>
+      <c r="F624" s="5"/>
       <c r="G624" s="5">
         <v>50141</v>
       </c>
@@ -13900,13 +13534,9 @@
       <c r="C625" s="3">
         <v>64007</v>
       </c>
-      <c r="D625" s="5">
-        <v>11674</v>
-      </c>
+      <c r="D625" s="5"/>
       <c r="E625" s="1"/>
-      <c r="F625" s="5">
-        <v>12194</v>
-      </c>
+      <c r="F625" s="5"/>
       <c r="G625" s="5">
         <v>50011</v>
       </c>
@@ -13920,13 +13550,9 @@
       <c r="C626" s="3">
         <v>63987</v>
       </c>
-      <c r="D626" s="5">
-        <v>11654</v>
-      </c>
+      <c r="D626" s="5"/>
       <c r="E626" s="1"/>
-      <c r="F626" s="5">
-        <v>12175</v>
-      </c>
+      <c r="F626" s="5"/>
       <c r="G626" s="5">
         <v>49991</v>
       </c>
@@ -13940,13 +13566,9 @@
       <c r="C627" s="3">
         <v>63827</v>
       </c>
-      <c r="D627" s="5">
-        <v>11624</v>
-      </c>
+      <c r="D627" s="5"/>
       <c r="E627" s="1"/>
-      <c r="F627" s="5">
-        <v>12165</v>
-      </c>
+      <c r="F627" s="5"/>
       <c r="G627" s="5">
         <v>49981</v>
       </c>
@@ -13960,13 +13582,9 @@
       <c r="C628" s="3">
         <v>63797</v>
       </c>
-      <c r="D628" s="5">
-        <v>11614</v>
-      </c>
+      <c r="D628" s="5"/>
       <c r="E628" s="1"/>
-      <c r="F628" s="5">
-        <v>12144</v>
-      </c>
+      <c r="F628" s="5"/>
       <c r="G628" s="5">
         <v>49901</v>
       </c>
@@ -13980,13 +13598,9 @@
       <c r="C629" s="3">
         <v>63636</v>
       </c>
-      <c r="D629" s="5">
-        <v>11604</v>
-      </c>
+      <c r="D629" s="5"/>
       <c r="E629" s="1"/>
-      <c r="F629" s="5">
-        <v>12105</v>
-      </c>
+      <c r="F629" s="5"/>
       <c r="G629" s="5">
         <v>49891</v>
       </c>
@@ -14000,13 +13614,9 @@
       <c r="C630" s="3">
         <v>63586</v>
       </c>
-      <c r="D630" s="5">
-        <v>11564</v>
-      </c>
+      <c r="D630" s="5"/>
       <c r="E630" s="1"/>
-      <c r="F630" s="5">
-        <v>12095</v>
-      </c>
+      <c r="F630" s="5"/>
       <c r="G630" s="5">
         <v>49891</v>
       </c>
@@ -14020,13 +13630,9 @@
       <c r="C631" s="3">
         <v>63497</v>
       </c>
-      <c r="D631" s="5">
-        <v>11544</v>
-      </c>
+      <c r="D631" s="5"/>
       <c r="E631" s="1"/>
-      <c r="F631" s="5">
-        <v>12014</v>
-      </c>
+      <c r="F631" s="5"/>
       <c r="G631" s="5">
         <v>49801</v>
       </c>
@@ -14040,13 +13646,9 @@
       <c r="C632" s="3">
         <v>63356</v>
       </c>
-      <c r="D632" s="5">
-        <v>11524</v>
-      </c>
+      <c r="D632" s="5"/>
       <c r="E632" s="1"/>
-      <c r="F632" s="5">
-        <v>11985</v>
-      </c>
+      <c r="F632" s="5"/>
       <c r="G632" s="5">
         <v>49691</v>
       </c>
@@ -14060,13 +13662,9 @@
       <c r="C633" s="3">
         <v>63176</v>
       </c>
-      <c r="D633" s="5">
-        <v>11514</v>
-      </c>
+      <c r="D633" s="5"/>
       <c r="E633" s="1"/>
-      <c r="F633" s="5">
-        <v>11925</v>
-      </c>
+      <c r="F633" s="5"/>
       <c r="G633" s="5">
         <v>49441</v>
       </c>
@@ -14080,13 +13678,9 @@
       <c r="C634" s="3">
         <v>63126</v>
       </c>
-      <c r="D634" s="5">
-        <v>11474</v>
-      </c>
+      <c r="D634" s="5"/>
       <c r="E634" s="1"/>
-      <c r="F634" s="5">
-        <v>11864</v>
-      </c>
+      <c r="F634" s="5"/>
       <c r="G634" s="5">
         <v>49250</v>
       </c>
@@ -14100,13 +13694,9 @@
       <c r="C635" s="3">
         <v>63116</v>
       </c>
-      <c r="D635" s="5">
-        <v>11464</v>
-      </c>
+      <c r="D635" s="5"/>
       <c r="E635" s="1"/>
-      <c r="F635" s="5">
-        <v>11764</v>
-      </c>
+      <c r="F635" s="5"/>
       <c r="G635" s="5">
         <v>48940</v>
       </c>
@@ -14120,13 +13710,9 @@
       <c r="C636" s="3">
         <v>63046</v>
       </c>
-      <c r="D636" s="5">
-        <v>11454</v>
-      </c>
+      <c r="D636" s="5"/>
       <c r="E636" s="1"/>
-      <c r="F636" s="5">
-        <v>11744</v>
-      </c>
+      <c r="F636" s="5"/>
       <c r="G636" s="5">
         <v>48170</v>
       </c>
@@ -14140,13 +13726,9 @@
       <c r="C637" s="3">
         <v>62936</v>
       </c>
-      <c r="D637" s="5">
-        <v>11444</v>
-      </c>
+      <c r="D637" s="5"/>
       <c r="E637" s="1"/>
-      <c r="F637" s="5">
-        <v>11734</v>
-      </c>
+      <c r="F637" s="5"/>
       <c r="G637" s="5">
         <v>48090</v>
       </c>
@@ -14160,13 +13742,9 @@
       <c r="C638" s="3">
         <v>62886</v>
       </c>
-      <c r="D638" s="5">
-        <v>11394</v>
-      </c>
+      <c r="D638" s="5"/>
       <c r="E638" s="1"/>
-      <c r="F638" s="5">
-        <v>11714</v>
-      </c>
+      <c r="F638" s="5"/>
       <c r="G638" s="5">
         <v>47760</v>
       </c>
@@ -14180,13 +13758,9 @@
       <c r="C639" s="3">
         <v>62686</v>
       </c>
-      <c r="D639" s="5">
-        <v>11364</v>
-      </c>
+      <c r="D639" s="5"/>
       <c r="E639" s="1"/>
-      <c r="F639" s="5">
-        <v>11704</v>
-      </c>
+      <c r="F639" s="5"/>
       <c r="G639" s="5">
         <v>47620</v>
       </c>
@@ -14200,13 +13774,9 @@
       <c r="C640" s="3">
         <v>62516</v>
       </c>
-      <c r="D640" s="5">
-        <v>11354</v>
-      </c>
+      <c r="D640" s="5"/>
       <c r="E640" s="1"/>
-      <c r="F640" s="5">
-        <v>11694</v>
-      </c>
+      <c r="F640" s="5"/>
       <c r="G640" s="5">
         <v>47459</v>
       </c>
@@ -14220,13 +13790,9 @@
       <c r="C641" s="3">
         <v>62426</v>
       </c>
-      <c r="D641" s="5">
-        <v>11344</v>
-      </c>
+      <c r="D641" s="5"/>
       <c r="E641" s="1"/>
-      <c r="F641" s="5">
-        <v>11684</v>
-      </c>
+      <c r="F641" s="5"/>
       <c r="G641" s="5">
         <v>47390</v>
       </c>
@@ -14240,13 +13806,9 @@
       <c r="C642" s="3">
         <v>62296</v>
       </c>
-      <c r="D642" s="5">
-        <v>11334</v>
-      </c>
+      <c r="D642" s="5"/>
       <c r="E642" s="1"/>
-      <c r="F642" s="5">
-        <v>11674</v>
-      </c>
+      <c r="F642" s="5"/>
       <c r="G642" s="5">
         <v>47250</v>
       </c>
@@ -14262,9 +13824,7 @@
       </c>
       <c r="D643" s="8"/>
       <c r="E643" s="9"/>
-      <c r="F643" s="8">
-        <v>20288</v>
-      </c>
+      <c r="F643" s="8"/>
       <c r="G643" s="8">
         <v>46899</v>
       </c>
@@ -14278,13 +13838,9 @@
       <c r="C644" s="3">
         <v>62276</v>
       </c>
-      <c r="D644" s="5">
-        <v>11314</v>
-      </c>
+      <c r="D644" s="5"/>
       <c r="E644" s="1"/>
-      <c r="F644" s="5">
-        <v>11614</v>
-      </c>
+      <c r="F644" s="5"/>
       <c r="G644" s="5">
         <v>46799</v>
       </c>
@@ -14298,13 +13854,9 @@
       <c r="C645" s="3">
         <v>62246</v>
       </c>
-      <c r="D645" s="5">
-        <v>11284</v>
-      </c>
+      <c r="D645" s="5"/>
       <c r="E645" s="1"/>
-      <c r="F645" s="5">
-        <v>11604</v>
-      </c>
+      <c r="F645" s="5"/>
       <c r="G645" s="5">
         <v>46739</v>
       </c>
@@ -14318,13 +13870,9 @@
       <c r="C646" s="3">
         <v>61816</v>
       </c>
-      <c r="D646" s="5">
-        <v>11274</v>
-      </c>
+      <c r="D646" s="5"/>
       <c r="E646" s="1"/>
-      <c r="F646" s="5">
-        <v>11584</v>
-      </c>
+      <c r="F646" s="5"/>
       <c r="G646" s="5">
         <v>46619</v>
       </c>
@@ -14338,13 +13886,9 @@
       <c r="C647" s="3">
         <v>61676</v>
       </c>
-      <c r="D647" s="5">
-        <v>11264</v>
-      </c>
+      <c r="D647" s="5"/>
       <c r="E647" s="1"/>
-      <c r="F647" s="5">
-        <v>11564</v>
-      </c>
+      <c r="F647" s="5"/>
       <c r="G647" s="5">
         <v>46489</v>
       </c>
@@ -14358,13 +13902,9 @@
       <c r="C648" s="3">
         <v>61596</v>
       </c>
-      <c r="D648" s="5">
-        <v>11244</v>
-      </c>
+      <c r="D648" s="5"/>
       <c r="E648" s="1"/>
-      <c r="F648" s="5">
-        <v>11564</v>
-      </c>
+      <c r="F648" s="5"/>
       <c r="G648" s="5">
         <v>46159</v>
       </c>
@@ -14378,13 +13918,9 @@
       <c r="C649" s="3">
         <v>61376</v>
       </c>
-      <c r="D649" s="5">
-        <v>11164</v>
-      </c>
+      <c r="D649" s="5"/>
       <c r="E649" s="1"/>
-      <c r="F649" s="5">
-        <v>11524</v>
-      </c>
+      <c r="F649" s="5"/>
       <c r="G649" s="5">
         <v>45769</v>
       </c>
@@ -14398,13 +13934,9 @@
       <c r="C650" s="3">
         <v>61256</v>
       </c>
-      <c r="D650" s="5">
-        <v>11154</v>
-      </c>
+      <c r="D650" s="5"/>
       <c r="E650" s="1"/>
-      <c r="F650" s="5">
-        <v>11454</v>
-      </c>
+      <c r="F650" s="5"/>
       <c r="G650" s="5">
         <v>45749</v>
       </c>
@@ -14418,13 +13950,9 @@
       <c r="C651" s="3">
         <v>61186</v>
       </c>
-      <c r="D651" s="5">
-        <v>11104</v>
-      </c>
+      <c r="D651" s="5"/>
       <c r="E651" s="1"/>
-      <c r="F651" s="5">
-        <v>11404</v>
-      </c>
+      <c r="F651" s="5"/>
       <c r="G651" s="5">
         <v>45649</v>
       </c>
@@ -14438,13 +13966,9 @@
       <c r="C652" s="3">
         <v>61055</v>
       </c>
-      <c r="D652" s="5">
-        <v>11084</v>
-      </c>
+      <c r="D652" s="5"/>
       <c r="E652" s="1"/>
-      <c r="F652" s="5">
-        <v>11334</v>
-      </c>
+      <c r="F652" s="5"/>
       <c r="G652" s="5">
         <v>45639</v>
       </c>
@@ -14458,13 +13982,9 @@
       <c r="C653" s="3">
         <v>60955</v>
       </c>
-      <c r="D653" s="5">
-        <v>11064</v>
-      </c>
+      <c r="D653" s="5"/>
       <c r="E653" s="1"/>
-      <c r="F653" s="5">
-        <v>11234</v>
-      </c>
+      <c r="F653" s="5"/>
       <c r="G653" s="5">
         <v>45579</v>
       </c>
@@ -14478,13 +13998,9 @@
       <c r="C654" s="3">
         <v>60915</v>
       </c>
-      <c r="D654" s="5">
-        <v>11034</v>
-      </c>
+      <c r="D654" s="5"/>
       <c r="E654" s="1"/>
-      <c r="F654" s="5">
-        <v>11224</v>
-      </c>
+      <c r="F654" s="5"/>
       <c r="G654" s="5">
         <v>45559</v>
       </c>
@@ -14498,13 +14014,9 @@
       <c r="C655" s="3">
         <v>60895</v>
       </c>
-      <c r="D655" s="5">
-        <v>11024</v>
-      </c>
+      <c r="D655" s="5"/>
       <c r="E655" s="1"/>
-      <c r="F655" s="5">
-        <v>11164</v>
-      </c>
+      <c r="F655" s="5"/>
       <c r="G655" s="5">
         <v>45549</v>
       </c>
@@ -14518,13 +14030,9 @@
       <c r="C656" s="3">
         <v>60835</v>
       </c>
-      <c r="D656" s="5">
-        <v>11024</v>
-      </c>
+      <c r="D656" s="5"/>
       <c r="E656" s="1"/>
-      <c r="F656" s="5">
-        <v>11134</v>
-      </c>
+      <c r="F656" s="5"/>
       <c r="G656" s="5">
         <v>45449</v>
       </c>
@@ -14538,13 +14046,9 @@
       <c r="C657" s="3">
         <v>60775</v>
       </c>
-      <c r="D657" s="5">
-        <v>11014</v>
-      </c>
+      <c r="D657" s="5"/>
       <c r="E657" s="1"/>
-      <c r="F657" s="5">
-        <v>11104</v>
-      </c>
+      <c r="F657" s="5"/>
       <c r="G657" s="5">
         <v>45119</v>
       </c>
@@ -14558,13 +14062,9 @@
       <c r="C658" s="3">
         <v>60725</v>
       </c>
-      <c r="D658" s="5">
-        <v>10964</v>
-      </c>
+      <c r="D658" s="5"/>
       <c r="E658" s="1"/>
-      <c r="F658" s="5">
-        <v>11074</v>
-      </c>
+      <c r="F658" s="5"/>
       <c r="G658" s="5">
         <v>45119</v>
       </c>
@@ -14578,13 +14078,9 @@
       <c r="C659" s="3">
         <v>60665</v>
       </c>
-      <c r="D659" s="5">
-        <v>10954</v>
-      </c>
+      <c r="D659" s="5"/>
       <c r="E659" s="1"/>
-      <c r="F659" s="5">
-        <v>11074</v>
-      </c>
+      <c r="F659" s="5"/>
       <c r="G659" s="5">
         <v>44908</v>
       </c>
@@ -14598,13 +14094,9 @@
       <c r="C660" s="3">
         <v>60445</v>
       </c>
-      <c r="D660" s="5">
-        <v>10954</v>
-      </c>
+      <c r="D660" s="5"/>
       <c r="E660" s="1"/>
-      <c r="F660" s="5">
-        <v>11014</v>
-      </c>
+      <c r="F660" s="5"/>
       <c r="G660" s="5">
         <v>44829</v>
       </c>
@@ -14618,13 +14110,9 @@
       <c r="C661" s="3">
         <v>60435</v>
       </c>
-      <c r="D661" s="5">
-        <v>10924</v>
-      </c>
+      <c r="D661" s="5"/>
       <c r="E661" s="1"/>
-      <c r="F661" s="5">
-        <v>11014</v>
-      </c>
+      <c r="F661" s="5"/>
       <c r="G661" s="5">
         <v>44748</v>
       </c>
@@ -14638,13 +14126,9 @@
       <c r="C662" s="3">
         <v>60185</v>
       </c>
-      <c r="D662" s="5">
-        <v>10894</v>
-      </c>
+      <c r="D662" s="5"/>
       <c r="E662" s="1"/>
-      <c r="F662" s="5">
-        <v>10994</v>
-      </c>
+      <c r="F662" s="5"/>
       <c r="G662" s="5">
         <v>44748</v>
       </c>
@@ -14658,13 +14142,9 @@
       <c r="C663" s="3">
         <v>60025</v>
       </c>
-      <c r="D663" s="5">
-        <v>10814</v>
-      </c>
+      <c r="D663" s="5"/>
       <c r="E663" s="1"/>
-      <c r="F663" s="5">
-        <v>10994</v>
-      </c>
+      <c r="F663" s="5"/>
       <c r="G663" s="5">
         <v>44748</v>
       </c>
@@ -14678,13 +14158,9 @@
       <c r="C664" s="3">
         <v>59505</v>
       </c>
-      <c r="D664" s="5">
-        <v>10814</v>
-      </c>
+      <c r="D664" s="5"/>
       <c r="E664" s="1"/>
-      <c r="F664" s="5">
-        <v>10974</v>
-      </c>
+      <c r="F664" s="5"/>
       <c r="G664" s="5">
         <v>44668</v>
       </c>
@@ -14698,13 +14174,9 @@
       <c r="C665" s="3">
         <v>59435</v>
       </c>
-      <c r="D665" s="5">
-        <v>10714</v>
-      </c>
+      <c r="D665" s="5"/>
       <c r="E665" s="1"/>
-      <c r="F665" s="5">
-        <v>10954</v>
-      </c>
+      <c r="F665" s="5"/>
       <c r="G665" s="5">
         <v>44539</v>
       </c>
@@ -14718,13 +14190,9 @@
       <c r="C666" s="3">
         <v>59405</v>
       </c>
-      <c r="D666" s="5">
-        <v>10684</v>
-      </c>
+      <c r="D666" s="5"/>
       <c r="E666" s="1"/>
-      <c r="F666" s="5">
-        <v>10904</v>
-      </c>
+      <c r="F666" s="5"/>
       <c r="G666" s="5">
         <v>44478</v>
       </c>
@@ -14738,13 +14206,9 @@
       <c r="C667" s="3">
         <v>59285</v>
       </c>
-      <c r="D667" s="5">
-        <v>10664</v>
-      </c>
+      <c r="D667" s="5"/>
       <c r="E667" s="1"/>
-      <c r="F667" s="5">
-        <v>10904</v>
-      </c>
+      <c r="F667" s="5"/>
       <c r="G667" s="1">
         <v>44463</v>
       </c>
@@ -14758,13 +14222,9 @@
       <c r="C668" s="3">
         <v>59185</v>
       </c>
-      <c r="D668" s="5">
-        <v>10644</v>
-      </c>
+      <c r="D668" s="5"/>
       <c r="E668" s="1"/>
-      <c r="F668" s="5">
-        <v>10884</v>
-      </c>
+      <c r="F668" s="5"/>
       <c r="G668" s="5">
         <v>44268</v>
       </c>
@@ -14778,13 +14238,9 @@
       <c r="C669" s="3">
         <v>59115</v>
       </c>
-      <c r="D669" s="5">
-        <v>10644</v>
-      </c>
+      <c r="D669" s="5"/>
       <c r="E669" s="1"/>
-      <c r="F669" s="5">
-        <v>10834</v>
-      </c>
+      <c r="F669" s="5"/>
       <c r="G669" s="5">
         <v>44188</v>
       </c>
@@ -14798,13 +14254,9 @@
       <c r="C670" s="3">
         <v>59025</v>
       </c>
-      <c r="D670" s="5">
-        <v>10644</v>
-      </c>
+      <c r="D670" s="5"/>
       <c r="E670" s="1"/>
-      <c r="F670" s="5">
-        <v>10824</v>
-      </c>
+      <c r="F670" s="5"/>
       <c r="G670" s="5">
         <v>44168</v>
       </c>
@@ -14818,13 +14270,9 @@
       <c r="C671" s="3">
         <v>58725</v>
       </c>
-      <c r="D671" s="5">
-        <v>10634</v>
-      </c>
+      <c r="D671" s="5"/>
       <c r="E671" s="1"/>
-      <c r="F671" s="5">
-        <v>10774</v>
-      </c>
+      <c r="F671" s="5"/>
       <c r="G671" s="5">
         <v>44048</v>
       </c>
@@ -14838,13 +14286,9 @@
       <c r="C672" s="3">
         <v>58655</v>
       </c>
-      <c r="D672" s="5">
-        <v>10614</v>
-      </c>
+      <c r="D672" s="5"/>
       <c r="E672" s="1"/>
-      <c r="F672" s="5">
-        <v>10714</v>
-      </c>
+      <c r="F672" s="5"/>
       <c r="G672" s="5">
         <v>43888</v>
       </c>
@@ -14858,13 +14302,9 @@
       <c r="C673" s="3">
         <v>58604</v>
       </c>
-      <c r="D673" s="5">
-        <v>10614</v>
-      </c>
+      <c r="D673" s="5"/>
       <c r="E673" s="1"/>
-      <c r="F673" s="5">
-        <v>10684</v>
-      </c>
+      <c r="F673" s="5"/>
       <c r="G673" s="1">
         <v>43839</v>
       </c>
@@ -14878,13 +14318,9 @@
       <c r="C674" s="3">
         <v>58424</v>
       </c>
-      <c r="D674" s="5">
-        <v>10604</v>
-      </c>
+      <c r="D674" s="5"/>
       <c r="E674" s="1"/>
-      <c r="F674" s="5">
-        <v>10674</v>
-      </c>
+      <c r="F674" s="5"/>
       <c r="G674" s="5">
         <v>43798</v>
       </c>
@@ -14898,13 +14334,9 @@
       <c r="C675" s="3">
         <v>58344</v>
       </c>
-      <c r="D675" s="5">
-        <v>10594</v>
-      </c>
+      <c r="D675" s="5"/>
       <c r="E675" s="1"/>
-      <c r="F675" s="5">
-        <v>10664</v>
-      </c>
+      <c r="F675" s="5"/>
       <c r="G675" s="5">
         <v>43748</v>
       </c>
@@ -14918,13 +14350,9 @@
       <c r="C676" s="3">
         <v>58254</v>
       </c>
-      <c r="D676" s="5">
-        <v>10584</v>
-      </c>
+      <c r="D676" s="5"/>
       <c r="E676" s="1"/>
-      <c r="F676" s="5">
-        <v>10664</v>
-      </c>
+      <c r="F676" s="5"/>
       <c r="G676" s="5">
         <v>43718</v>
       </c>
@@ -14938,13 +14366,9 @@
       <c r="C677" s="3">
         <v>58124</v>
       </c>
-      <c r="D677" s="5">
-        <v>10574</v>
-      </c>
+      <c r="D677" s="5"/>
       <c r="E677" s="1"/>
-      <c r="F677" s="5">
-        <v>10654</v>
-      </c>
+      <c r="F677" s="5"/>
       <c r="G677" s="5">
         <v>43648</v>
       </c>
@@ -14958,13 +14382,9 @@
       <c r="C678" s="3">
         <v>58084</v>
       </c>
-      <c r="D678" s="5">
-        <v>10574</v>
-      </c>
+      <c r="D678" s="5"/>
       <c r="E678" s="1"/>
-      <c r="F678" s="5">
-        <v>10644</v>
-      </c>
+      <c r="F678" s="5"/>
       <c r="G678" s="5">
         <v>43628</v>
       </c>
@@ -14978,13 +14398,9 @@
       <c r="C679" s="3">
         <v>57984</v>
       </c>
-      <c r="D679" s="5">
-        <v>10564</v>
-      </c>
+      <c r="D679" s="5"/>
       <c r="E679" s="1"/>
-      <c r="F679" s="5">
-        <v>10634</v>
-      </c>
+      <c r="F679" s="5"/>
       <c r="G679" s="5">
         <v>43528</v>
       </c>
@@ -14998,13 +14414,9 @@
       <c r="C680" s="3">
         <v>57984</v>
       </c>
-      <c r="D680" s="5">
-        <v>10504</v>
-      </c>
+      <c r="D680" s="5"/>
       <c r="E680" s="1"/>
-      <c r="F680" s="5">
-        <v>10624</v>
-      </c>
+      <c r="F680" s="5"/>
       <c r="G680" s="5">
         <v>43478</v>
       </c>
@@ -15018,13 +14430,9 @@
       <c r="C681" s="3">
         <v>57954</v>
       </c>
-      <c r="D681" s="5">
-        <v>10504</v>
-      </c>
+      <c r="D681" s="5"/>
       <c r="E681" s="1"/>
-      <c r="F681" s="5">
-        <v>10594</v>
-      </c>
+      <c r="F681" s="5"/>
       <c r="G681" s="5">
         <v>43478</v>
       </c>
@@ -15038,13 +14446,9 @@
       <c r="C682" s="3">
         <v>57874</v>
       </c>
-      <c r="D682" s="5">
-        <v>10494</v>
-      </c>
+      <c r="D682" s="5"/>
       <c r="E682" s="1"/>
-      <c r="F682" s="5">
-        <v>10584</v>
-      </c>
+      <c r="F682" s="5"/>
       <c r="G682" s="5">
         <v>43408</v>
       </c>
@@ -15058,13 +14462,9 @@
       <c r="C683" s="3">
         <v>57864</v>
       </c>
-      <c r="D683" s="5">
-        <v>10484</v>
-      </c>
+      <c r="D683" s="5"/>
       <c r="E683" s="1"/>
-      <c r="F683" s="5">
-        <v>10544</v>
-      </c>
+      <c r="F683" s="5"/>
       <c r="G683" s="5">
         <v>43288</v>
       </c>
@@ -15078,13 +14478,9 @@
       <c r="C684" s="3">
         <v>57684</v>
       </c>
-      <c r="D684" s="5">
-        <v>10484</v>
-      </c>
+      <c r="D684" s="5"/>
       <c r="E684" s="1"/>
-      <c r="F684" s="5">
-        <v>10514</v>
-      </c>
+      <c r="F684" s="5"/>
       <c r="G684" s="5">
         <v>43208</v>
       </c>
@@ -15098,13 +14494,9 @@
       <c r="C685" s="3">
         <v>57614</v>
       </c>
-      <c r="D685" s="5">
-        <v>10474</v>
-      </c>
+      <c r="D685" s="5"/>
       <c r="E685" s="1"/>
-      <c r="F685" s="5">
-        <v>10494</v>
-      </c>
+      <c r="F685" s="5"/>
       <c r="G685" s="1">
         <v>43175</v>
       </c>
@@ -15118,13 +14510,9 @@
       <c r="C686" s="3">
         <v>57604</v>
       </c>
-      <c r="D686" s="5">
-        <v>10474</v>
-      </c>
+      <c r="D686" s="5"/>
       <c r="E686" s="1"/>
-      <c r="F686" s="5">
-        <v>10494</v>
-      </c>
+      <c r="F686" s="5"/>
       <c r="G686" s="5">
         <v>43068</v>
       </c>
@@ -15138,13 +14526,9 @@
       <c r="C687" s="3">
         <v>57584</v>
       </c>
-      <c r="D687" s="5">
-        <v>10454</v>
-      </c>
+      <c r="D687" s="5"/>
       <c r="E687" s="1"/>
-      <c r="F687" s="5">
-        <v>10454</v>
-      </c>
+      <c r="F687" s="5"/>
       <c r="G687" s="5">
         <v>43058</v>
       </c>
@@ -15158,13 +14542,9 @@
       <c r="C688" s="3">
         <v>57454</v>
       </c>
-      <c r="D688" s="5">
-        <v>10444</v>
-      </c>
+      <c r="D688" s="5"/>
       <c r="E688" s="1"/>
-      <c r="F688" s="5">
-        <v>10444</v>
-      </c>
+      <c r="F688" s="5"/>
       <c r="G688" s="5">
         <v>42978</v>
       </c>
@@ -15178,13 +14558,9 @@
       <c r="C689" s="3">
         <v>57294</v>
       </c>
-      <c r="D689" s="5">
-        <v>10434</v>
-      </c>
+      <c r="D689" s="5"/>
       <c r="E689" s="1"/>
-      <c r="F689" s="5">
-        <v>10424</v>
-      </c>
+      <c r="F689" s="5"/>
       <c r="G689" s="5">
         <v>42848</v>
       </c>
@@ -15198,13 +14574,9 @@
       <c r="C690" s="3">
         <v>57244</v>
       </c>
-      <c r="D690" s="5">
-        <v>10364</v>
-      </c>
+      <c r="D690" s="5"/>
       <c r="E690" s="1"/>
-      <c r="F690" s="5">
-        <v>10414</v>
-      </c>
+      <c r="F690" s="5"/>
       <c r="G690" s="5">
         <v>42828</v>
       </c>
@@ -15218,13 +14590,9 @@
       <c r="C691" s="3">
         <v>56974</v>
       </c>
-      <c r="D691" s="5">
-        <v>10334</v>
-      </c>
+      <c r="D691" s="5"/>
       <c r="E691" s="1"/>
-      <c r="F691" s="5">
-        <v>10304</v>
-      </c>
+      <c r="F691" s="5"/>
       <c r="G691" s="5">
         <v>42317</v>
       </c>
@@ -15238,13 +14606,9 @@
       <c r="C692" s="3">
         <v>56183</v>
       </c>
-      <c r="D692" s="5">
-        <v>10274</v>
-      </c>
+      <c r="D692" s="5"/>
       <c r="E692" s="1"/>
-      <c r="F692" s="5">
-        <v>10284</v>
-      </c>
+      <c r="F692" s="5"/>
       <c r="G692" s="5">
         <v>42277</v>
       </c>
@@ -15258,13 +14622,9 @@
       <c r="C693" s="3">
         <v>56063</v>
       </c>
-      <c r="D693" s="5">
-        <v>10264</v>
-      </c>
+      <c r="D693" s="5"/>
       <c r="E693" s="1"/>
-      <c r="F693" s="5">
-        <v>10274</v>
-      </c>
+      <c r="F693" s="5"/>
       <c r="G693" s="5">
         <v>42247</v>
       </c>
@@ -15294,13 +14654,9 @@
       <c r="C695" s="3">
         <v>55703</v>
       </c>
-      <c r="D695" s="5">
-        <v>10194</v>
-      </c>
+      <c r="D695" s="5"/>
       <c r="E695" s="1"/>
-      <c r="F695" s="5">
-        <v>10224</v>
-      </c>
+      <c r="F695" s="5"/>
       <c r="G695" s="5">
         <v>41817</v>
       </c>
@@ -15314,13 +14670,9 @@
       <c r="C696" s="3">
         <v>55643</v>
       </c>
-      <c r="D696" s="5">
-        <v>10144</v>
-      </c>
+      <c r="D696" s="5"/>
       <c r="E696" s="1"/>
-      <c r="F696" s="5">
-        <v>10184</v>
-      </c>
+      <c r="F696" s="5"/>
       <c r="G696" s="5">
         <v>41527</v>
       </c>
@@ -15334,13 +14686,9 @@
       <c r="C697" s="3">
         <v>55103</v>
       </c>
-      <c r="D697" s="5">
-        <v>10124</v>
-      </c>
+      <c r="D697" s="5"/>
       <c r="E697" s="1"/>
-      <c r="F697" s="5">
-        <v>10184</v>
-      </c>
+      <c r="F697" s="5"/>
       <c r="G697" s="5">
         <v>41407</v>
       </c>
@@ -15354,13 +14702,9 @@
       <c r="C698" s="3">
         <v>55063</v>
       </c>
-      <c r="D698" s="5">
-        <v>10114</v>
-      </c>
+      <c r="D698" s="5"/>
       <c r="E698" s="1"/>
-      <c r="F698" s="5">
-        <v>10144</v>
-      </c>
+      <c r="F698" s="5"/>
       <c r="G698" s="5">
         <v>41297</v>
       </c>
@@ -15374,13 +14718,9 @@
       <c r="C699" s="3">
         <v>55043</v>
       </c>
-      <c r="D699" s="5">
-        <v>10114</v>
-      </c>
+      <c r="D699" s="5"/>
       <c r="E699" s="1"/>
-      <c r="F699" s="5">
-        <v>10134</v>
-      </c>
+      <c r="F699" s="5"/>
       <c r="G699" s="5">
         <v>41267</v>
       </c>
@@ -15394,13 +14734,9 @@
       <c r="C700" s="3">
         <v>55043</v>
       </c>
-      <c r="D700" s="5">
-        <v>10114</v>
-      </c>
+      <c r="D700" s="5"/>
       <c r="E700" s="1"/>
-      <c r="F700" s="5">
-        <v>10063</v>
-      </c>
+      <c r="F700" s="5"/>
       <c r="G700" s="5">
         <v>41257</v>
       </c>
@@ -15414,13 +14750,9 @@
       <c r="C701" s="3">
         <v>54953</v>
       </c>
-      <c r="D701" s="5">
-        <v>10094</v>
-      </c>
+      <c r="D701" s="5"/>
       <c r="E701" s="1"/>
-      <c r="F701" s="5">
-        <v>10024</v>
-      </c>
+      <c r="F701" s="5"/>
       <c r="G701" s="5">
         <v>41227</v>
       </c>
@@ -15434,9 +14766,7 @@
       <c r="C702" s="3">
         <v>54743</v>
       </c>
-      <c r="D702" s="5">
-        <v>10074</v>
-      </c>
+      <c r="D702" s="5"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
       <c r="G702" s="5">
@@ -15452,9 +14782,7 @@
       <c r="C703" s="3">
         <v>54663</v>
       </c>
-      <c r="D703" s="5">
-        <v>10024</v>
-      </c>
+      <c r="D703" s="5"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
       <c r="G703" s="5">
@@ -15470,9 +14798,7 @@
       <c r="C704" s="3">
         <v>54383</v>
       </c>
-      <c r="D704" s="5">
-        <v>10014</v>
-      </c>
+      <c r="D704" s="5"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
       <c r="G704" s="5">
@@ -15488,9 +14814,7 @@
       <c r="C705" s="3">
         <v>54333</v>
       </c>
-      <c r="D705" s="5">
-        <v>10003</v>
-      </c>
+      <c r="D705" s="5"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
       <c r="G705" s="5">
@@ -16610,13 +15934,9 @@
       <c r="C775" s="3">
         <v>75992</v>
       </c>
-      <c r="D775" s="5">
-        <v>13445</v>
-      </c>
+      <c r="D775" s="5"/>
       <c r="E775" s="1"/>
-      <c r="F775" s="5">
-        <v>14456</v>
-      </c>
+      <c r="F775" s="5"/>
       <c r="G775" s="5">
         <v>36255</v>
       </c>
@@ -16998,13 +16318,9 @@
       <c r="C799" s="3">
         <v>71270</v>
       </c>
-      <c r="D799" s="5">
-        <v>12475</v>
-      </c>
+      <c r="D799" s="5"/>
       <c r="E799" s="1"/>
-      <c r="F799" s="5">
-        <v>13275</v>
-      </c>
+      <c r="F799" s="5"/>
       <c r="G799" s="5">
         <v>34744</v>
       </c>
@@ -18298,13 +17614,9 @@
       <c r="C880" s="3">
         <v>73681</v>
       </c>
-      <c r="D880" s="5">
-        <v>12865</v>
-      </c>
+      <c r="D880" s="5"/>
       <c r="E880" s="1"/>
-      <c r="F880" s="5">
-        <v>13685</v>
-      </c>
+      <c r="F880" s="5"/>
       <c r="G880" s="4">
         <v>30382</v>
       </c>
@@ -19534,13 +18846,9 @@
       <c r="C957" s="3">
         <v>71620</v>
       </c>
-      <c r="D957" s="5">
-        <v>12615</v>
-      </c>
+      <c r="D957" s="5"/>
       <c r="E957" s="1"/>
-      <c r="F957" s="5">
-        <v>13385</v>
-      </c>
+      <c r="F957" s="5"/>
       <c r="G957" s="4">
         <v>25239</v>
       </c>
